--- a/data/pca/factorExposure/factorExposure_2017-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02338359806533112</v>
+        <v>0.005445000854115767</v>
       </c>
       <c r="C2">
-        <v>0.0001442163721786562</v>
+        <v>-0.03797236765986364</v>
       </c>
       <c r="D2">
-        <v>-0.01284820968530619</v>
+        <v>-0.02946230994057204</v>
       </c>
       <c r="E2">
-        <v>0.01118340193863463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02644317549927994</v>
+      </c>
+      <c r="F2">
+        <v>0.02697692618973779</v>
+      </c>
+      <c r="G2">
+        <v>0.03092237699509591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01298776060994847</v>
+        <v>0.0507141273231697</v>
       </c>
       <c r="C3">
-        <v>-0.04050299484541774</v>
+        <v>-0.07536111103697833</v>
       </c>
       <c r="D3">
-        <v>-0.008509496691760413</v>
+        <v>-0.01517140607798148</v>
       </c>
       <c r="E3">
-        <v>0.005744994754202018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08801354260995738</v>
+      </c>
+      <c r="F3">
+        <v>0.06667491785522126</v>
+      </c>
+      <c r="G3">
+        <v>0.07581385522006449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02226093326079199</v>
+        <v>0.05533430875364731</v>
       </c>
       <c r="C4">
-        <v>-0.01489185568369668</v>
+        <v>-0.06053934196542984</v>
       </c>
       <c r="D4">
-        <v>-0.06379854348232038</v>
+        <v>-0.02324411707456401</v>
       </c>
       <c r="E4">
-        <v>-0.01516663476911307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01549412240916713</v>
+      </c>
+      <c r="F4">
+        <v>0.01157312856748638</v>
+      </c>
+      <c r="G4">
+        <v>0.05431594368002599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01524548008528511</v>
+        <v>0.03335892525736901</v>
       </c>
       <c r="C6">
-        <v>-0.01667659339297504</v>
+        <v>-0.05078447370840669</v>
       </c>
       <c r="D6">
-        <v>-0.07895773573798039</v>
+        <v>-0.0162387764881472</v>
       </c>
       <c r="E6">
-        <v>-0.002842003695953838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.0132604443816533</v>
+      </c>
+      <c r="F6">
+        <v>0.01067828333851392</v>
+      </c>
+      <c r="G6">
+        <v>0.03205800244376228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01006110150603908</v>
+        <v>0.01448777961866183</v>
       </c>
       <c r="C7">
-        <v>-0.001629575166770891</v>
+        <v>-0.03622300374239585</v>
       </c>
       <c r="D7">
-        <v>-0.0338605543430851</v>
+        <v>-0.01342869789257443</v>
       </c>
       <c r="E7">
-        <v>-0.07043087839402809</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01166019955050237</v>
+      </c>
+      <c r="F7">
+        <v>0.004020833487608092</v>
+      </c>
+      <c r="G7">
+        <v>0.0866495915542609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000194422997703239</v>
+        <v>-0.002780446197412025</v>
       </c>
       <c r="C8">
-        <v>0.006644716752480896</v>
+        <v>-0.01901826555949462</v>
       </c>
       <c r="D8">
-        <v>-0.007024744271926492</v>
+        <v>-0.00412321869142564</v>
       </c>
       <c r="E8">
-        <v>-0.008664876251880114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01955108454757766</v>
+      </c>
+      <c r="F8">
+        <v>0.02412666910657288</v>
+      </c>
+      <c r="G8">
+        <v>0.0259456185546343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01470447872293334</v>
+        <v>0.02988242032881114</v>
       </c>
       <c r="C9">
-        <v>-0.0129718468672737</v>
+        <v>-0.04242443626219983</v>
       </c>
       <c r="D9">
-        <v>-0.0452801661836632</v>
+        <v>-0.01625156695636268</v>
       </c>
       <c r="E9">
-        <v>-0.004975569371378231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01225222469421987</v>
+      </c>
+      <c r="F9">
+        <v>0.01745810111281668</v>
+      </c>
+      <c r="G9">
+        <v>0.04393498778619671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01142973216212695</v>
+        <v>0.08489029414340717</v>
       </c>
       <c r="C10">
-        <v>-0.1600891707138361</v>
+        <v>0.1856409542629386</v>
       </c>
       <c r="D10">
-        <v>0.1211971144715668</v>
+        <v>0.01762298294082633</v>
       </c>
       <c r="E10">
-        <v>-0.01650344183277984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0135572605895948</v>
+      </c>
+      <c r="F10">
+        <v>-0.0124217184528038</v>
+      </c>
+      <c r="G10">
+        <v>0.04542494568767303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001683039910083892</v>
+        <v>0.03304155854648313</v>
       </c>
       <c r="C11">
-        <v>-0.004138481610766311</v>
+        <v>-0.05236062506200304</v>
       </c>
       <c r="D11">
-        <v>-0.04317960220235979</v>
+        <v>-0.00206480345163567</v>
       </c>
       <c r="E11">
-        <v>0.009937982711477169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003681924156100713</v>
+      </c>
+      <c r="F11">
+        <v>0.01986721253996451</v>
+      </c>
+      <c r="G11">
+        <v>0.02513274953434757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005526732740510956</v>
+        <v>0.03217562145011716</v>
       </c>
       <c r="C12">
-        <v>-0.01198219147962621</v>
+        <v>-0.04456161698380426</v>
       </c>
       <c r="D12">
-        <v>-0.04495570706491182</v>
+        <v>-0.006111556517274896</v>
       </c>
       <c r="E12">
-        <v>0.00156213108593871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003114684171135711</v>
+      </c>
+      <c r="F12">
+        <v>0.006412247579011691</v>
+      </c>
+      <c r="G12">
+        <v>0.02880242927520654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0211681939017607</v>
+        <v>0.01238008075152933</v>
       </c>
       <c r="C13">
-        <v>-0.01151111605821853</v>
+        <v>-0.03164914527151555</v>
       </c>
       <c r="D13">
-        <v>-0.01241943260795428</v>
+        <v>-0.02512127561020125</v>
       </c>
       <c r="E13">
-        <v>0.007171207777383392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01963548240372662</v>
+      </c>
+      <c r="F13">
+        <v>0.01691692499723634</v>
+      </c>
+      <c r="G13">
+        <v>0.03921474694441433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00703933000280444</v>
+        <v>0.00629289301011103</v>
       </c>
       <c r="C14">
-        <v>-0.01182173859783183</v>
+        <v>-0.02652092853707436</v>
       </c>
       <c r="D14">
-        <v>-0.01515815235825182</v>
+        <v>-0.008928993554703068</v>
       </c>
       <c r="E14">
-        <v>-0.01099065482469243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007095079599410687</v>
+      </c>
+      <c r="F14">
+        <v>-0.001283845301277851</v>
+      </c>
+      <c r="G14">
+        <v>0.04459631679370313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0007230549258178386</v>
+        <v>0.03163108547977592</v>
       </c>
       <c r="C16">
-        <v>-0.0116857451486884</v>
+        <v>-0.04322703725109704</v>
       </c>
       <c r="D16">
-        <v>-0.04567525499203432</v>
+        <v>-0.001541789121152234</v>
       </c>
       <c r="E16">
-        <v>0.003246327378932679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004506719052602871</v>
+      </c>
+      <c r="F16">
+        <v>0.009232911023296632</v>
+      </c>
+      <c r="G16">
+        <v>0.02657815362612966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01308183733073904</v>
+        <v>0.02396551997292057</v>
       </c>
       <c r="C19">
-        <v>-0.02348862638296614</v>
+        <v>-0.04831757569829559</v>
       </c>
       <c r="D19">
-        <v>-0.02445370927465776</v>
+        <v>-0.01645817226529215</v>
       </c>
       <c r="E19">
-        <v>-0.006063020760004141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0502996923745981</v>
+      </c>
+      <c r="F19">
+        <v>0.03255309700915487</v>
+      </c>
+      <c r="G19">
+        <v>0.05269035662457309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01015466871418043</v>
+        <v>0.01086598346852827</v>
       </c>
       <c r="C20">
-        <v>-0.005050888599785641</v>
+        <v>-0.03399663891030819</v>
       </c>
       <c r="D20">
-        <v>-0.01111267186540118</v>
+        <v>-0.01326969675327212</v>
       </c>
       <c r="E20">
-        <v>-0.0002517310480087197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0215096991627618</v>
+      </c>
+      <c r="F20">
+        <v>0.0006918063917157895</v>
+      </c>
+      <c r="G20">
+        <v>0.04220371936887599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01394114659272685</v>
+        <v>0.01318772676923866</v>
       </c>
       <c r="C21">
-        <v>-0.02994799122421773</v>
+        <v>-0.03608470141079795</v>
       </c>
       <c r="D21">
-        <v>-0.01983221135700959</v>
+        <v>-0.01664276379108183</v>
       </c>
       <c r="E21">
-        <v>-0.01828260999746104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02858167866871012</v>
+      </c>
+      <c r="F21">
+        <v>0.0107643413098208</v>
+      </c>
+      <c r="G21">
+        <v>0.06320003547646832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004711449344566339</v>
+        <v>0.02592637263953176</v>
       </c>
       <c r="C24">
-        <v>-0.003477709641688416</v>
+        <v>-0.04626315714806777</v>
       </c>
       <c r="D24">
-        <v>-0.04297831139152092</v>
+        <v>-0.006974220482450585</v>
       </c>
       <c r="E24">
-        <v>0.004361572358294899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-1.836722235861627e-05</v>
+      </c>
+      <c r="F24">
+        <v>0.01806258184340575</v>
+      </c>
+      <c r="G24">
+        <v>0.02864158431924292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01123708023216164</v>
+        <v>0.04257968054568744</v>
       </c>
       <c r="C25">
-        <v>-0.02058173723657987</v>
+        <v>-0.05306416583209279</v>
       </c>
       <c r="D25">
-        <v>-0.04352899464745869</v>
+        <v>-0.01101513421165736</v>
       </c>
       <c r="E25">
-        <v>0.003153489993992307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.005724829823671713</v>
+      </c>
+      <c r="F25">
+        <v>0.01181130959120451</v>
+      </c>
+      <c r="G25">
+        <v>0.03512434599575805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02241599986444235</v>
+        <v>0.01078161577334696</v>
       </c>
       <c r="C26">
-        <v>-0.007962501927173815</v>
+        <v>-0.00904311740637506</v>
       </c>
       <c r="D26">
-        <v>0.006673291417500601</v>
+        <v>-0.0238297187471722</v>
       </c>
       <c r="E26">
-        <v>-0.009977869589270298</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004571495907992324</v>
+      </c>
+      <c r="F26">
+        <v>0.0022790807014306</v>
+      </c>
+      <c r="G26">
+        <v>0.0335033786068599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02996601842622453</v>
+        <v>0.1080258983276461</v>
       </c>
       <c r="C28">
-        <v>-0.2365205519803377</v>
+        <v>0.2289068240946692</v>
       </c>
       <c r="D28">
-        <v>0.1698963901067657</v>
+        <v>0.008533765539804294</v>
       </c>
       <c r="E28">
-        <v>-0.02744763077087194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.003186598724288572</v>
+      </c>
+      <c r="F28">
+        <v>-0.00931154438148186</v>
+      </c>
+      <c r="G28">
+        <v>0.06407122786267269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007253003823409398</v>
+        <v>0.01060651163113843</v>
       </c>
       <c r="C29">
-        <v>-0.01642056908313982</v>
+        <v>-0.02022085529130661</v>
       </c>
       <c r="D29">
-        <v>-0.01247893067977446</v>
+        <v>-0.007654078282501892</v>
       </c>
       <c r="E29">
-        <v>-0.007128322699784636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008041774604724978</v>
+      </c>
+      <c r="F29">
+        <v>-0.01103986241977073</v>
+      </c>
+      <c r="G29">
+        <v>0.03592235462759245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02301058623083248</v>
+        <v>0.04222157014262877</v>
       </c>
       <c r="C30">
-        <v>0.001112918464949341</v>
+        <v>-0.06473435922554872</v>
       </c>
       <c r="D30">
-        <v>-0.06326996849011698</v>
+        <v>-0.02777840234564413</v>
       </c>
       <c r="E30">
-        <v>0.05875549036093085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.036919416309459</v>
+      </c>
+      <c r="F30">
+        <v>0.05211951447045392</v>
+      </c>
+      <c r="G30">
+        <v>0.01448848183339465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007429446078039814</v>
+        <v>0.04697153768383103</v>
       </c>
       <c r="C31">
-        <v>-0.04296985392150711</v>
+        <v>-0.03129775833036945</v>
       </c>
       <c r="D31">
-        <v>-0.04078090568857704</v>
+        <v>-0.003517608053847258</v>
       </c>
       <c r="E31">
-        <v>-0.005577601794205974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008675539784977674</v>
+      </c>
+      <c r="F31">
+        <v>-0.0325662579148892</v>
+      </c>
+      <c r="G31">
+        <v>0.03223447916472688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007285090842013996</v>
+        <v>-0.003110498148592041</v>
       </c>
       <c r="C32">
-        <v>-0.01674184252959385</v>
+        <v>-0.0321492256310274</v>
       </c>
       <c r="D32">
-        <v>-0.00193915308237324</v>
+        <v>0.004005692701444626</v>
       </c>
       <c r="E32">
-        <v>-0.03080930305080206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007194754013432414</v>
+      </c>
+      <c r="F32">
+        <v>0.05025314789127017</v>
+      </c>
+      <c r="G32">
+        <v>0.0608563929491934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01214411069567012</v>
+        <v>0.02511936916476512</v>
       </c>
       <c r="C33">
-        <v>-0.02213655132579988</v>
+        <v>-0.0473348266043329</v>
       </c>
       <c r="D33">
-        <v>-0.02278499628565997</v>
+        <v>-0.01465718377239289</v>
       </c>
       <c r="E33">
-        <v>0.0221533535824905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02088758937919814</v>
+      </c>
+      <c r="F33">
+        <v>0.02856590613640348</v>
+      </c>
+      <c r="G33">
+        <v>0.04194006684905908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.00477977484945073</v>
+        <v>0.04371887899996548</v>
       </c>
       <c r="C34">
-        <v>-0.0190011543410093</v>
+        <v>-0.05333907805574564</v>
       </c>
       <c r="D34">
-        <v>-0.04809109227206087</v>
+        <v>0.005106554110242724</v>
       </c>
       <c r="E34">
-        <v>-0.004206654426850241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007319298088889554</v>
+      </c>
+      <c r="F34">
+        <v>0.0201303676850479</v>
+      </c>
+      <c r="G34">
+        <v>0.039901194104076</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01179286909944832</v>
+        <v>0.01051647640164563</v>
       </c>
       <c r="C36">
-        <v>-0.0174226833578519</v>
+        <v>-0.00752796520267096</v>
       </c>
       <c r="D36">
-        <v>-0.001252578962908899</v>
+        <v>-0.01163030881388241</v>
       </c>
       <c r="E36">
-        <v>-0.003734919484755809</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-6.656441520688216e-05</v>
+      </c>
+      <c r="F36">
+        <v>-0.003868646446880041</v>
+      </c>
+      <c r="G36">
+        <v>0.02889394095342435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005911525585032761</v>
+        <v>0.03107532439862691</v>
       </c>
       <c r="C38">
-        <v>-0.02850936089526551</v>
+        <v>-0.02637048908220551</v>
       </c>
       <c r="D38">
-        <v>-0.01786684521934832</v>
+        <v>0.007402014619527636</v>
       </c>
       <c r="E38">
-        <v>-0.004250603899699812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003896076572468762</v>
+      </c>
+      <c r="F38">
+        <v>-0.004650240989886692</v>
+      </c>
+      <c r="G38">
+        <v>0.03759228367544023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005694905045089382</v>
+        <v>0.0323779285584694</v>
       </c>
       <c r="C39">
-        <v>0.0217244626238128</v>
+        <v>-0.07967735530309475</v>
       </c>
       <c r="D39">
-        <v>-0.0889956616659886</v>
+        <v>-0.01224722176637631</v>
       </c>
       <c r="E39">
-        <v>0.01176354187785491</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02093214078302044</v>
+      </c>
+      <c r="F39">
+        <v>0.03971555736583084</v>
+      </c>
+      <c r="G39">
+        <v>0.02981998566489001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.009950140019686611</v>
+        <v>0.02001981747148148</v>
       </c>
       <c r="C40">
-        <v>-0.009456995025386376</v>
+        <v>-0.03054891747249</v>
       </c>
       <c r="D40">
-        <v>-0.03623542603392092</v>
+        <v>-0.01309262891708183</v>
       </c>
       <c r="E40">
-        <v>0.006300645704878622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01695537051370798</v>
+      </c>
+      <c r="F40">
+        <v>0.01959179497765317</v>
+      </c>
+      <c r="G40">
+        <v>0.02953324244624295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004980813383222996</v>
+        <v>0.01105076838385618</v>
       </c>
       <c r="C41">
-        <v>-0.01989431293458553</v>
+        <v>0.0006286803358201103</v>
       </c>
       <c r="D41">
-        <v>0.01039529360928772</v>
+        <v>-0.003818333195149575</v>
       </c>
       <c r="E41">
-        <v>-0.004448772640443197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00261917512954037</v>
+      </c>
+      <c r="F41">
+        <v>0.0009637059910263979</v>
+      </c>
+      <c r="G41">
+        <v>0.02017640964108146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09427103559015594</v>
+        <v>0.01618840112620537</v>
       </c>
       <c r="C42">
-        <v>0.004831338195530997</v>
+        <v>-0.04296077013692774</v>
       </c>
       <c r="D42">
-        <v>-0.2513194979939204</v>
+        <v>-0.09551860685946456</v>
       </c>
       <c r="E42">
-        <v>0.2991136009585102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04277202116709526</v>
+      </c>
+      <c r="F42">
+        <v>-0.04619606312617296</v>
+      </c>
+      <c r="G42">
+        <v>-0.1667844764797489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005928794749074383</v>
+        <v>0.02703880591302001</v>
       </c>
       <c r="C43">
-        <v>-0.01981880430165187</v>
+        <v>-0.01035791606512402</v>
       </c>
       <c r="D43">
-        <v>0.01493646688930456</v>
+        <v>-0.00445063147708954</v>
       </c>
       <c r="E43">
-        <v>-0.0002820149176236048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.00310433428663638</v>
+      </c>
+      <c r="F43">
+        <v>-0.0005652081875947008</v>
+      </c>
+      <c r="G43">
+        <v>0.0274788267070231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002836782048795789</v>
+        <v>0.01345104536833323</v>
       </c>
       <c r="C44">
-        <v>0.0001750814508357274</v>
+        <v>-0.04939258333697958</v>
       </c>
       <c r="D44">
-        <v>-0.02436601035449242</v>
+        <v>-0.006665166341906756</v>
       </c>
       <c r="E44">
-        <v>-0.002625641778701883</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01470841025758686</v>
+      </c>
+      <c r="F44">
+        <v>0.006543305024148413</v>
+      </c>
+      <c r="G44">
+        <v>0.04514385179076247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01045184797371212</v>
+        <v>0.005176721938911558</v>
       </c>
       <c r="C46">
-        <v>-0.01808314043961355</v>
+        <v>-0.01692813971593743</v>
       </c>
       <c r="D46">
-        <v>-0.01102544781750357</v>
+        <v>-0.01162945935318259</v>
       </c>
       <c r="E46">
-        <v>-0.002446588841103122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004834487574399813</v>
+      </c>
+      <c r="F46">
+        <v>-0.01307730718808026</v>
+      </c>
+      <c r="G46">
+        <v>0.03247086845831717</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001466580004721986</v>
+        <v>0.07489061753511511</v>
       </c>
       <c r="C47">
-        <v>-0.05457545450065886</v>
+        <v>-0.06347564411974792</v>
       </c>
       <c r="D47">
-        <v>-0.05520224411599573</v>
+        <v>0.004703659942362553</v>
       </c>
       <c r="E47">
-        <v>0.004969921733732362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008050684330305929</v>
+      </c>
+      <c r="F47">
+        <v>-0.05174349605510243</v>
+      </c>
+      <c r="G47">
+        <v>0.03035107293185155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002586110008833702</v>
+        <v>0.01935776504502072</v>
       </c>
       <c r="C48">
-        <v>-0.02586514611457346</v>
+        <v>-0.00989190352365363</v>
       </c>
       <c r="D48">
-        <v>-0.01157033368147807</v>
+        <v>-0.001154884573739042</v>
       </c>
       <c r="E48">
-        <v>-0.001949692098746502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002053037539610116</v>
+      </c>
+      <c r="F48">
+        <v>-0.0118698432196502</v>
+      </c>
+      <c r="G48">
+        <v>0.03516934415171331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002629001284183</v>
+        <v>0.0791931689861529</v>
       </c>
       <c r="C50">
-        <v>-0.04588256835560947</v>
+        <v>-0.0652939299639855</v>
       </c>
       <c r="D50">
-        <v>-0.06281274208203891</v>
+        <v>0.00309424567412233</v>
       </c>
       <c r="E50">
-        <v>-0.02250603747947248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01189598392087809</v>
+      </c>
+      <c r="F50">
+        <v>-0.0502323079629345</v>
+      </c>
+      <c r="G50">
+        <v>0.05601715649812385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006995520859995338</v>
+        <v>0.009054213000178111</v>
       </c>
       <c r="C51">
-        <v>-0.0199702380834094</v>
+        <v>-0.02667896762177209</v>
       </c>
       <c r="D51">
-        <v>0.01206205912198968</v>
+        <v>-0.009291396469658564</v>
       </c>
       <c r="E51">
-        <v>-0.01086311610372834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006366504643496495</v>
+      </c>
+      <c r="F51">
+        <v>0.02302864567892768</v>
+      </c>
+      <c r="G51">
+        <v>0.05871287382955248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004554187803461758</v>
+        <v>0.08619423078027762</v>
       </c>
       <c r="C53">
-        <v>-0.07077294881877448</v>
+        <v>-0.07922486077792226</v>
       </c>
       <c r="D53">
-        <v>-0.1142059676504413</v>
+        <v>0.00424359197349672</v>
       </c>
       <c r="E53">
-        <v>-0.001247688022901294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02880306064426874</v>
+      </c>
+      <c r="F53">
+        <v>-0.06351885663834025</v>
+      </c>
+      <c r="G53">
+        <v>0.03348681208448399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001058143313371526</v>
+        <v>0.02887367761781043</v>
       </c>
       <c r="C54">
-        <v>-0.03292269457886442</v>
+        <v>-0.01023970756459087</v>
       </c>
       <c r="D54">
-        <v>0.008167634256359172</v>
+        <v>0.002806511259591981</v>
       </c>
       <c r="E54">
-        <v>-0.01156581142419013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0004958382360474102</v>
+      </c>
+      <c r="F54">
+        <v>-0.002378089477603389</v>
+      </c>
+      <c r="G54">
+        <v>0.03770416723772013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.002086040772373661</v>
+        <v>0.07201432088019767</v>
       </c>
       <c r="C55">
-        <v>-0.05214182950656888</v>
+        <v>-0.0714040865407808</v>
       </c>
       <c r="D55">
-        <v>-0.09792780831985903</v>
+        <v>0.00438866096524682</v>
       </c>
       <c r="E55">
-        <v>0.01042196236418672</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02082634569891196</v>
+      </c>
+      <c r="F55">
+        <v>-0.05810386852974388</v>
+      </c>
+      <c r="G55">
+        <v>0.01443923352173656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.001798062112790292</v>
+        <v>0.1464722358369198</v>
       </c>
       <c r="C56">
-        <v>-0.09396396210684679</v>
+        <v>-0.1023939487238485</v>
       </c>
       <c r="D56">
-        <v>-0.1479246565535345</v>
+        <v>0.01308217791579773</v>
       </c>
       <c r="E56">
-        <v>0.01010904752740999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03171471016579097</v>
+      </c>
+      <c r="F56">
+        <v>-0.09216502472400918</v>
+      </c>
+      <c r="G56">
+        <v>0.005296578441503441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02363145306789243</v>
+        <v>0.009832630848624908</v>
       </c>
       <c r="C57">
-        <v>-0.02579944088998538</v>
+        <v>-0.009446853364484132</v>
       </c>
       <c r="D57">
-        <v>-0.03915289948373361</v>
+        <v>-0.02369522379638284</v>
       </c>
       <c r="E57">
-        <v>0.008123893606753418</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02731443881192654</v>
+      </c>
+      <c r="F57">
+        <v>0.01708203103431077</v>
+      </c>
+      <c r="G57">
+        <v>0.02115109881410074</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01030506440461873</v>
+        <v>0.06982174621785787</v>
       </c>
       <c r="C58">
-        <v>-0.0924003653205209</v>
+        <v>-0.0375492858620972</v>
       </c>
       <c r="D58">
-        <v>-0.087169941652389</v>
+        <v>-0.01598963531669195</v>
       </c>
       <c r="E58">
-        <v>0.2039931085966619</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9573275905924153</v>
+      </c>
+      <c r="F58">
+        <v>-0.1746389985299463</v>
+      </c>
+      <c r="G58">
+        <v>0.00183562675263734</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02605858528403572</v>
+        <v>0.1521426789431612</v>
       </c>
       <c r="C59">
-        <v>-0.2463688781310263</v>
+        <v>0.2138408613691063</v>
       </c>
       <c r="D59">
-        <v>0.1697913780793204</v>
+        <v>0.01582749071536657</v>
       </c>
       <c r="E59">
-        <v>-0.003768603504971311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01028235638881403</v>
+      </c>
+      <c r="F59">
+        <v>0.006056442928427782</v>
+      </c>
+      <c r="G59">
+        <v>0.02270575004435134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03195241944582151</v>
+        <v>0.2880991132472812</v>
       </c>
       <c r="C60">
-        <v>-0.1621723355244853</v>
+        <v>-0.09282598200406625</v>
       </c>
       <c r="D60">
-        <v>-0.08410902917815674</v>
+        <v>-0.01140181032046037</v>
       </c>
       <c r="E60">
-        <v>0.04531002219266768</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01244044892148641</v>
+      </c>
+      <c r="F60">
+        <v>0.3656287543696892</v>
+      </c>
+      <c r="G60">
+        <v>-0.08646599164080346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002885029266146636</v>
+        <v>0.03390567881461541</v>
       </c>
       <c r="C61">
-        <v>-0.005253836551974231</v>
+        <v>-0.06431810967753514</v>
       </c>
       <c r="D61">
-        <v>-0.06427586549110736</v>
+        <v>-0.005487330659619417</v>
       </c>
       <c r="E61">
-        <v>0.006870863031685204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.00830877478237778</v>
+      </c>
+      <c r="F61">
+        <v>0.02242098585276947</v>
+      </c>
+      <c r="G61">
+        <v>0.02806734534258411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007179187949940356</v>
+        <v>0.01130039986996085</v>
       </c>
       <c r="C63">
-        <v>-0.007364794256667258</v>
+        <v>-0.02865039355976735</v>
       </c>
       <c r="D63">
-        <v>-0.008937442695888404</v>
+        <v>-0.008290836404134666</v>
       </c>
       <c r="E63">
-        <v>-0.009801631307449247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006421106829646398</v>
+      </c>
+      <c r="F63">
+        <v>-0.01698951598321834</v>
+      </c>
+      <c r="G63">
+        <v>0.04030075270028333</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006871380323345915</v>
+        <v>0.05158664298607431</v>
       </c>
       <c r="C64">
-        <v>-0.02686666123856459</v>
+        <v>-0.03964360815119872</v>
       </c>
       <c r="D64">
-        <v>-0.06288038514051508</v>
+        <v>-0.005407871524431617</v>
       </c>
       <c r="E64">
-        <v>0.01207664488315724</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006592010430744646</v>
+      </c>
+      <c r="F64">
+        <v>0.0061800870792761</v>
+      </c>
+      <c r="G64">
+        <v>0.02802430733944797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01772002888807639</v>
+        <v>0.08105957421982313</v>
       </c>
       <c r="C65">
-        <v>-0.02215179776269468</v>
+        <v>-0.06112008513515107</v>
       </c>
       <c r="D65">
-        <v>-0.09211641293989811</v>
+        <v>-0.01579646604418882</v>
       </c>
       <c r="E65">
-        <v>-2.967377836414519e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01717545638748948</v>
+      </c>
+      <c r="F65">
+        <v>0.03309081481019045</v>
+      </c>
+      <c r="G65">
+        <v>0.01672059345906461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005394522690088681</v>
+        <v>0.05212816477911505</v>
       </c>
       <c r="C66">
-        <v>0.01206055131080877</v>
+        <v>-0.1118168726410472</v>
       </c>
       <c r="D66">
-        <v>-0.1142620959196005</v>
+        <v>-0.0119905135350672</v>
       </c>
       <c r="E66">
-        <v>0.02737275850252821</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02573396571168134</v>
+      </c>
+      <c r="F66">
+        <v>0.04897810059719074</v>
+      </c>
+      <c r="G66">
+        <v>0.02366191677167345</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0006368569654500694</v>
+        <v>0.05406171975260017</v>
       </c>
       <c r="C67">
-        <v>-0.04656645084109756</v>
+        <v>-0.03044752832384817</v>
       </c>
       <c r="D67">
-        <v>-0.02459775534132688</v>
+        <v>0.005535873750315138</v>
       </c>
       <c r="E67">
-        <v>-0.001948013958164729</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.001883084391507537</v>
+      </c>
+      <c r="F67">
+        <v>-0.005747077895695625</v>
+      </c>
+      <c r="G67">
+        <v>0.03607379081525457</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04438807826972489</v>
+        <v>0.1333683340886193</v>
       </c>
       <c r="C68">
-        <v>-0.2220758215758384</v>
+        <v>0.2726150522420155</v>
       </c>
       <c r="D68">
-        <v>0.1605617971889254</v>
+        <v>-0.002145113886613666</v>
       </c>
       <c r="E68">
-        <v>0.003915187046802803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01063599860878892</v>
+      </c>
+      <c r="F68">
+        <v>-0.03934152832692064</v>
+      </c>
+      <c r="G68">
+        <v>0.023536198203973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00325980550400217</v>
+        <v>0.07846608094754021</v>
       </c>
       <c r="C69">
-        <v>-0.03891917018274039</v>
+        <v>-0.0644551013505608</v>
       </c>
       <c r="D69">
-        <v>-0.05999823978106749</v>
+        <v>0.008673698588858379</v>
       </c>
       <c r="E69">
-        <v>-0.0003784674247843464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0263261813939388</v>
+      </c>
+      <c r="F69">
+        <v>-0.03892845565836283</v>
+      </c>
+      <c r="G69">
+        <v>0.03132056270556807</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03107160726741379</v>
+        <v>0.1288432295872083</v>
       </c>
       <c r="C71">
-        <v>-0.1951709677025831</v>
+        <v>0.2364078936103537</v>
       </c>
       <c r="D71">
-        <v>0.1481569488987979</v>
+        <v>0.006790857021218977</v>
       </c>
       <c r="E71">
-        <v>-0.01160427014870316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02502386072087067</v>
+      </c>
+      <c r="F71">
+        <v>-0.009555663619747105</v>
+      </c>
+      <c r="G71">
+        <v>0.03756505265409851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002257802346621107</v>
+        <v>0.08263757650141698</v>
       </c>
       <c r="C72">
-        <v>-0.0433196953863757</v>
+        <v>-0.07230778570660576</v>
       </c>
       <c r="D72">
-        <v>-0.126772565852967</v>
+        <v>0.0080181535355765</v>
       </c>
       <c r="E72">
-        <v>0.0283590061314241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01023828785163887</v>
+      </c>
+      <c r="F72">
+        <v>0.03683731871084309</v>
+      </c>
+      <c r="G72">
+        <v>0.007328341587647836</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04576636866368657</v>
+        <v>0.4035561582333534</v>
       </c>
       <c r="C73">
-        <v>-0.1912016250193561</v>
+        <v>-0.09875266548770958</v>
       </c>
       <c r="D73">
-        <v>-0.1480924036253982</v>
+        <v>-0.01603777372309028</v>
       </c>
       <c r="E73">
-        <v>0.1059077774241811</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.03405690731650675</v>
+      </c>
+      <c r="F73">
+        <v>0.5562893472273152</v>
+      </c>
+      <c r="G73">
+        <v>-0.1539129178240203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>8.701572245910138e-05</v>
+        <v>0.1152756406314538</v>
       </c>
       <c r="C74">
-        <v>-0.08469271407098425</v>
+        <v>-0.1160984286197936</v>
       </c>
       <c r="D74">
-        <v>-0.149359850478053</v>
+        <v>0.009595970821437937</v>
       </c>
       <c r="E74">
-        <v>0.01909341763676731</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01246351039726707</v>
+      </c>
+      <c r="F74">
+        <v>-0.07948153529230208</v>
+      </c>
+      <c r="G74">
+        <v>0.03855579589271859</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.004011189482774757</v>
+        <v>0.258118499384935</v>
       </c>
       <c r="C75">
-        <v>-0.1996285204271475</v>
+        <v>-0.1477423828378825</v>
       </c>
       <c r="D75">
-        <v>-0.2727825158987999</v>
+        <v>0.03025854926355865</v>
       </c>
       <c r="E75">
-        <v>0.04449140074795441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.04294522645216801</v>
+      </c>
+      <c r="F75">
+        <v>-0.202791281641381</v>
+      </c>
+      <c r="G75">
+        <v>-0.03547571524921878</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.003633599131476255</v>
+        <v>0.1315405143089981</v>
       </c>
       <c r="C76">
-        <v>-0.139360845078292</v>
+        <v>-0.1225679441198278</v>
       </c>
       <c r="D76">
-        <v>-0.2344620656354927</v>
+        <v>0.02029209659716271</v>
       </c>
       <c r="E76">
-        <v>0.004028291133743233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04143183539816959</v>
+      </c>
+      <c r="F76">
+        <v>-0.1321499705419329</v>
+      </c>
+      <c r="G76">
+        <v>0.02252146531029435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01146021957860115</v>
+        <v>0.06628418535165446</v>
       </c>
       <c r="C77">
-        <v>-0.01738639576629512</v>
+        <v>-0.06257654499845079</v>
       </c>
       <c r="D77">
-        <v>-0.06304703592360403</v>
+        <v>-0.01262871439304369</v>
       </c>
       <c r="E77">
-        <v>0.004023624197660772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04641506277576284</v>
+      </c>
+      <c r="F77">
+        <v>0.01807003822563162</v>
+      </c>
+      <c r="G77">
+        <v>0.05447078829680552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003756003144194929</v>
+        <v>0.04090829376120358</v>
       </c>
       <c r="C78">
-        <v>-0.007489854999838127</v>
+        <v>-0.05037189764067407</v>
       </c>
       <c r="D78">
-        <v>-0.06564678587506582</v>
+        <v>-0.005958757939963302</v>
       </c>
       <c r="E78">
-        <v>0.003523421046989737</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01917993117475171</v>
+      </c>
+      <c r="F78">
+        <v>0.04166991800763852</v>
+      </c>
+      <c r="G78">
+        <v>0.03928288258084898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01555805750062363</v>
+        <v>0.05739230611176142</v>
       </c>
       <c r="C80">
-        <v>-0.1262843812766185</v>
+        <v>-0.06582727139816433</v>
       </c>
       <c r="D80">
-        <v>-0.2160675178724355</v>
+        <v>-0.01358828893530718</v>
       </c>
       <c r="E80">
-        <v>-0.8987697847458946</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03322881834407689</v>
+      </c>
+      <c r="F80">
+        <v>0.04992249075603652</v>
+      </c>
+      <c r="G80">
+        <v>0.8949251622571766</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.003426221047666942</v>
+        <v>0.1485320966058493</v>
       </c>
       <c r="C81">
-        <v>-0.128539752132729</v>
+        <v>-0.09270077694897078</v>
       </c>
       <c r="D81">
-        <v>-0.1695914342595593</v>
+        <v>0.01529898052147319</v>
       </c>
       <c r="E81">
-        <v>0.01917825762964995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02548100521433529</v>
+      </c>
+      <c r="F81">
+        <v>-0.1298915526462032</v>
+      </c>
+      <c r="G81">
+        <v>0.01569104474840065</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.09440321808893612</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.04955713875135542</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004857307080568736</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08114188793897746</v>
+      </c>
+      <c r="F82">
+        <v>-0.02039896044219373</v>
+      </c>
+      <c r="G82">
+        <v>-8.203998762493281e-05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006561698001081127</v>
+        <v>0.03072682708682403</v>
       </c>
       <c r="C83">
-        <v>-0.02711285990351315</v>
+        <v>-0.01930356276136031</v>
       </c>
       <c r="D83">
-        <v>-0.02204029460119597</v>
+        <v>-0.004952677941488387</v>
       </c>
       <c r="E83">
-        <v>0.005008908437217861</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02086579715284134</v>
+      </c>
+      <c r="F83">
+        <v>0.02061392508803868</v>
+      </c>
+      <c r="G83">
+        <v>0.02622744790597224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01129741662470311</v>
+        <v>0.2288636876890047</v>
       </c>
       <c r="C85">
-        <v>-0.1535136698754876</v>
+        <v>-0.14715385567489</v>
       </c>
       <c r="D85">
-        <v>-0.2615895080791643</v>
+        <v>0.01829919381529652</v>
       </c>
       <c r="E85">
-        <v>0.04340783536857217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.08769846531919276</v>
+      </c>
+      <c r="F85">
+        <v>-0.1807727081840148</v>
+      </c>
+      <c r="G85">
+        <v>-0.05219354104402996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006624699476579257</v>
+        <v>0.008707086818401395</v>
       </c>
       <c r="C86">
-        <v>-0.02609955765443899</v>
+        <v>-0.01405712725879788</v>
       </c>
       <c r="D86">
-        <v>-0.005531577144563316</v>
+        <v>-0.009775918096528904</v>
       </c>
       <c r="E86">
-        <v>0.02131732010679087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02551563452998819</v>
+      </c>
+      <c r="F86">
+        <v>0.03342896652016739</v>
+      </c>
+      <c r="G86">
+        <v>0.06002252587890341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007313789822280471</v>
+        <v>0.019146296554192</v>
       </c>
       <c r="C87">
-        <v>-0.01144543309438878</v>
+        <v>-0.02471903510548055</v>
       </c>
       <c r="D87">
-        <v>-0.03842403278677772</v>
+        <v>-0.01080207599115412</v>
       </c>
       <c r="E87">
-        <v>0.005114206374320978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08084733560791812</v>
+      </c>
+      <c r="F87">
+        <v>0.03067419178762059</v>
+      </c>
+      <c r="G87">
+        <v>0.05055642260440447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02629743135859873</v>
+        <v>0.09179053462724075</v>
       </c>
       <c r="C88">
-        <v>-0.03900780828776721</v>
+        <v>-0.05917785863878132</v>
       </c>
       <c r="D88">
-        <v>-0.02903972012478169</v>
+        <v>-0.02237254873113213</v>
       </c>
       <c r="E88">
-        <v>0.005339646577428778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01304172347377094</v>
+      </c>
+      <c r="F88">
+        <v>-0.006045559348809399</v>
+      </c>
+      <c r="G88">
+        <v>0.02734607632777814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05977328204127345</v>
+        <v>0.2194023038739031</v>
       </c>
       <c r="C89">
-        <v>-0.3625662541766411</v>
+        <v>0.3706030121185321</v>
       </c>
       <c r="D89">
-        <v>0.2427445675691192</v>
+        <v>0.006583190215245203</v>
       </c>
       <c r="E89">
-        <v>0.007160030760333573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02001364775286006</v>
+      </c>
+      <c r="F89">
+        <v>-0.03444971706423414</v>
+      </c>
+      <c r="G89">
+        <v>0.03440738521286349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04528153191695867</v>
+        <v>0.1922214645581837</v>
       </c>
       <c r="C90">
-        <v>-0.2785323173423973</v>
+        <v>0.3346499557713274</v>
       </c>
       <c r="D90">
-        <v>0.2310493505894264</v>
+        <v>0.01034845796524769</v>
       </c>
       <c r="E90">
-        <v>0.009772409079248291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01476783278953454</v>
+      </c>
+      <c r="F90">
+        <v>-0.05191010642919711</v>
+      </c>
+      <c r="G90">
+        <v>0.00382497316157203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0002923958895247215</v>
+        <v>0.2045048462508779</v>
       </c>
       <c r="C91">
-        <v>-0.1579380842010286</v>
+        <v>-0.1358428418241346</v>
       </c>
       <c r="D91">
-        <v>-0.2431899024054485</v>
+        <v>0.02392620592290647</v>
       </c>
       <c r="E91">
-        <v>0.02526472472235297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0622213428221948</v>
+      </c>
+      <c r="F91">
+        <v>-0.1715256371656058</v>
+      </c>
+      <c r="G91">
+        <v>0.006658166291394169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01129954418669045</v>
+        <v>0.1980611945028561</v>
       </c>
       <c r="C92">
-        <v>-0.3239344753227132</v>
+        <v>0.2615798671094781</v>
       </c>
       <c r="D92">
-        <v>0.09280388180939227</v>
+        <v>0.04787386724766099</v>
       </c>
       <c r="E92">
-        <v>0.009096374579495241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.002193457531803306</v>
+      </c>
+      <c r="F92">
+        <v>-0.1034675778441252</v>
+      </c>
+      <c r="G92">
+        <v>0.0696921960063682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04291022140774303</v>
+        <v>0.2209271498049441</v>
       </c>
       <c r="C93">
-        <v>-0.3148119035842757</v>
+        <v>0.3350202929642178</v>
       </c>
       <c r="D93">
-        <v>0.2242521071213098</v>
+        <v>0.01766510111140254</v>
       </c>
       <c r="E93">
-        <v>0.03386153637892559</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001972162628589919</v>
+      </c>
+      <c r="F93">
+        <v>-0.03597175616016168</v>
+      </c>
+      <c r="G93">
+        <v>-0.00124994243811671</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02156165537118294</v>
+        <v>0.305758988215242</v>
       </c>
       <c r="C94">
-        <v>-0.2032872081200528</v>
+        <v>-0.1797557485897697</v>
       </c>
       <c r="D94">
-        <v>-0.2446238422185282</v>
+        <v>0.01421923697704125</v>
       </c>
       <c r="E94">
-        <v>0.07265635814306623</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1082013132476386</v>
+      </c>
+      <c r="F94">
+        <v>-0.4554514848405312</v>
+      </c>
+      <c r="G94">
+        <v>-0.1518943581676196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004842067648453981</v>
+        <v>0.08570794935028307</v>
       </c>
       <c r="C95">
-        <v>-0.05004896262767121</v>
+        <v>-0.06570125099256051</v>
       </c>
       <c r="D95">
-        <v>-0.07929938783989217</v>
+        <v>0.008052037040673513</v>
       </c>
       <c r="E95">
-        <v>0.118219227127378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07382889250316634</v>
+      </c>
+      <c r="F95">
+        <v>0.1618528271592599</v>
+      </c>
+      <c r="G95">
+        <v>-0.0848415790975704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.006330267510767226</v>
+        <v>0.1996628816402929</v>
       </c>
       <c r="C98">
-        <v>-0.1600158282914568</v>
+        <v>-0.03809831898371301</v>
       </c>
       <c r="D98">
-        <v>-0.107929559490954</v>
+        <v>0.01462038591597565</v>
       </c>
       <c r="E98">
-        <v>0.06587444041731519</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05672217889444763</v>
+      </c>
+      <c r="F98">
+        <v>0.2627328520415744</v>
+      </c>
+      <c r="G98">
+        <v>-0.02557564736075214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007099012002652432</v>
+        <v>0.01046622242972389</v>
       </c>
       <c r="C101">
-        <v>-0.01693550552713136</v>
+        <v>-0.02033789029923112</v>
       </c>
       <c r="D101">
-        <v>-0.0130786225675365</v>
+        <v>-0.007442487161354185</v>
       </c>
       <c r="E101">
-        <v>-0.007268038136711475</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008428173383805006</v>
+      </c>
+      <c r="F101">
+        <v>-0.01285750267975133</v>
+      </c>
+      <c r="G101">
+        <v>0.03590832902810004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01487110100013907</v>
+        <v>0.1214093814411206</v>
       </c>
       <c r="C102">
-        <v>-0.09410290458226075</v>
+        <v>-0.08167824310885906</v>
       </c>
       <c r="D102">
-        <v>-0.128995357201107</v>
+        <v>-0.001212383687089094</v>
       </c>
       <c r="E102">
-        <v>0.02291905929752911</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03056778126233207</v>
+      </c>
+      <c r="F102">
+        <v>-0.04661624648164278</v>
+      </c>
+      <c r="G102">
+        <v>-0.004074621819689666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001761105140671983</v>
+        <v>0.003960265286813025</v>
       </c>
       <c r="C103">
-        <v>-0.01356992935260136</v>
+        <v>-0.005292673180447249</v>
       </c>
       <c r="D103">
-        <v>-0.02803000370009599</v>
+        <v>-0.0004812780301467131</v>
       </c>
       <c r="E103">
-        <v>-0.01224658963292415</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00291676904654917</v>
+      </c>
+      <c r="F103">
+        <v>-0.008706812068557357</v>
+      </c>
+      <c r="G103">
+        <v>0.01751873253005136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9836629573954336</v>
+        <v>0.03088082203900011</v>
       </c>
       <c r="C104">
-        <v>0.117537381629452</v>
+        <v>0.04074673506627884</v>
       </c>
       <c r="D104">
-        <v>0.005964852146503159</v>
+        <v>-0.9871986278073024</v>
       </c>
       <c r="E104">
-        <v>-0.02780463221754685</v>
+        <v>0.03604788392557516</v>
+      </c>
+      <c r="F104">
+        <v>-0.04519088168649531</v>
+      </c>
+      <c r="G104">
+        <v>-0.009560805394681248</v>
       </c>
     </row>
   </sheetData>
